--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T06:40:04+00:00</t>
+    <t>2025-09-25T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T07:29:00+00:00</t>
+    <t>2025-10-20T12:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:22:03+00:00</t>
+    <t>2025-10-21T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/362-rc---maj-des-capability-statements--lot-1b/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:57:56+00:00</t>
+    <t>2025-10-23T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
